--- a/IMS/App_Data/Roles.xlsx
+++ b/IMS/App_Data/Roles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,174 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>康复医学科</t>
+  </si>
+  <si>
+    <t>心血管内科</t>
+  </si>
+  <si>
+    <t>儿科</t>
+  </si>
+  <si>
+    <t>消化内科</t>
+  </si>
+  <si>
+    <t>内分泌内科</t>
+  </si>
+  <si>
+    <t>呼吸内科</t>
+  </si>
+  <si>
+    <t>泌尿外科</t>
+  </si>
+  <si>
+    <t>耳鼻咽喉头颈外科</t>
+  </si>
+  <si>
+    <t>胃肠外科</t>
+  </si>
+  <si>
+    <t>肝胆小儿外科</t>
+  </si>
+  <si>
+    <t>骨外科</t>
+  </si>
+  <si>
+    <t>妇科</t>
+  </si>
+  <si>
+    <t>心胸外科</t>
+  </si>
+  <si>
+    <t>手足整形血管外科</t>
+  </si>
+  <si>
+    <t>乳腺肿瘤外科</t>
+  </si>
+  <si>
+    <t>眼科</t>
+  </si>
+  <si>
+    <t>神经内科一</t>
+  </si>
+  <si>
+    <t>神经内科二</t>
+  </si>
+  <si>
+    <t>神经外科</t>
+  </si>
+  <si>
+    <t>脑病重症病区</t>
+  </si>
+  <si>
+    <t>干部病区</t>
+  </si>
+  <si>
+    <t>介入血管科</t>
+  </si>
+  <si>
+    <t>肿瘤内科</t>
+  </si>
+  <si>
+    <t>血液内科</t>
+  </si>
+  <si>
+    <t>皮肤科</t>
+  </si>
+  <si>
+    <t>肾病风湿病科</t>
+  </si>
+  <si>
+    <t>重症医学科</t>
+  </si>
+  <si>
+    <t>急救创伤外科</t>
+  </si>
+  <si>
+    <t>急诊内科病区</t>
+  </si>
+  <si>
+    <t>全院</t>
+  </si>
+  <si>
+    <t>病理科</t>
+  </si>
+  <si>
+    <t>检验科</t>
+  </si>
+  <si>
+    <t>麻醉科</t>
+  </si>
+  <si>
+    <t>血透室</t>
+  </si>
+  <si>
+    <t>超声科</t>
+  </si>
+  <si>
+    <t>放射科</t>
+  </si>
+  <si>
+    <t>急诊科</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>病案统计室</t>
+  </si>
+  <si>
+    <t>医疗质量控制管理部</t>
+  </si>
+  <si>
+    <t>药学部</t>
+  </si>
+  <si>
+    <t>总监办</t>
+  </si>
+  <si>
+    <t>门诊部</t>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改科室项目值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrators</t>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +204,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +505,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>